--- a/Input_data/NPs/NP_Database_Synth.xlsx
+++ b/Input_data/NPs/NP_Database_Synth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23503D22-4389-424F-A41F-D63EC2A8D5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3372FBED-AE8C-4ACB-8EFC-AD0CDC2A669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -752,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD93B0A-7305-43B0-9C03-61303B4AF43A}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB506C-18F9-4EF7-A2FE-9BAF44A578A1}">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1322,7 @@
         <v>229</v>
       </c>
       <c r="P2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>229</v>
       </c>
       <c r="P3">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q3">
         <v>1</v>
